--- a/mail/dialog_model.xlsx
+++ b/mail/dialog_model.xlsx
@@ -866,13 +866,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="130.42578125" customWidth="1"/>
   </cols>
   <sheetData>
